--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>11.21775578976513</v>
+        <v>0.645876387980111</v>
       </c>
       <c r="R2">
-        <v>11.21775578976513</v>
+        <v>5.812887491821</v>
       </c>
       <c r="S2">
-        <v>0.01910688389447015</v>
+        <v>0.001005984779176297</v>
       </c>
       <c r="T2">
-        <v>0.01910688389447015</v>
+        <v>0.001005984779176297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>87.5508979477593</v>
+        <v>2.378597688103889</v>
       </c>
       <c r="R3">
-        <v>87.5508979477593</v>
+        <v>21.407379192935</v>
       </c>
       <c r="S3">
-        <v>0.1491229505522571</v>
+        <v>0.003704784869903195</v>
       </c>
       <c r="T3">
-        <v>0.1491229505522571</v>
+        <v>0.003704784869903196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>125.6499118571233</v>
+        <v>3.549098077560888</v>
       </c>
       <c r="R4">
-        <v>125.6499118571233</v>
+        <v>31.94188269804799</v>
       </c>
       <c r="S4">
-        <v>0.2140159156785075</v>
+        <v>0.00552789777157801</v>
       </c>
       <c r="T4">
-        <v>0.2140159156785075</v>
+        <v>0.005527897771578011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>214.0397300846904</v>
+        <v>5.919694292905445</v>
       </c>
       <c r="R5">
-        <v>214.0397300846904</v>
+        <v>53.277248636149</v>
       </c>
       <c r="S5">
-        <v>0.3645677752463832</v>
+        <v>0.009220219947447667</v>
       </c>
       <c r="T5">
-        <v>0.3645677752463832</v>
+        <v>0.009220219947447667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>0.717754177658573</v>
+        <v>24.24480942414311</v>
       </c>
       <c r="R6">
-        <v>0.717754177658573</v>
+        <v>218.203284817288</v>
       </c>
       <c r="S6">
-        <v>0.001222530245292529</v>
+        <v>0.03776250333441369</v>
       </c>
       <c r="T6">
-        <v>0.001222530245292529</v>
+        <v>0.03776250333441369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H7">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>5.60183551304421</v>
+        <v>89.28743753140891</v>
       </c>
       <c r="R7">
-        <v>5.60183551304421</v>
+        <v>803.5869377826801</v>
       </c>
       <c r="S7">
-        <v>0.009541446858854849</v>
+        <v>0.1390696498584769</v>
       </c>
       <c r="T7">
-        <v>0.009541446858854849</v>
+        <v>0.1390696498584769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H8">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>8.039553619108514</v>
+        <v>133.2255027733049</v>
       </c>
       <c r="R8">
-        <v>8.039553619108514</v>
+        <v>1199.029524959744</v>
       </c>
       <c r="S8">
-        <v>0.01369354266954405</v>
+        <v>0.2075053841296043</v>
       </c>
       <c r="T8">
-        <v>0.01369354266954405</v>
+        <v>0.2075053841296043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H9">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N9">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q9">
-        <v>13.6950664047587</v>
+        <v>222.2125822396524</v>
       </c>
       <c r="R9">
-        <v>13.6950664047587</v>
+        <v>1999.913240156872</v>
       </c>
       <c r="S9">
-        <v>0.0233264164978102</v>
+        <v>0.3461072112786932</v>
       </c>
       <c r="T9">
-        <v>0.0233264164978102</v>
+        <v>0.3461072112786933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H10">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N10">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q10">
-        <v>3.085315725553837</v>
+        <v>1.558380660050667</v>
       </c>
       <c r="R10">
-        <v>3.085315725553837</v>
+        <v>14.025425940456</v>
       </c>
       <c r="S10">
-        <v>0.005255130388889875</v>
+        <v>0.002427255823790786</v>
       </c>
       <c r="T10">
-        <v>0.005255130388889875</v>
+        <v>0.002427255823790787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H11">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N11">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q11">
-        <v>24.07987544808519</v>
+        <v>5.739117738573333</v>
       </c>
       <c r="R11">
-        <v>24.07987544808519</v>
+        <v>51.65205964716001</v>
       </c>
       <c r="S11">
-        <v>0.04101456592589087</v>
+        <v>0.008938962932150494</v>
       </c>
       <c r="T11">
-        <v>0.04101456592589087</v>
+        <v>0.008938962932150497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H12">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N12">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q12">
-        <v>34.5585744807298</v>
+        <v>8.563319402325332</v>
       </c>
       <c r="R12">
-        <v>34.5585744807298</v>
+        <v>77.06987462092799</v>
       </c>
       <c r="S12">
-        <v>0.0588626354982834</v>
+        <v>0.01333779828196727</v>
       </c>
       <c r="T12">
-        <v>0.0588626354982834</v>
+        <v>0.01333779828196727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N13">
+        <v>82.533463</v>
+      </c>
+      <c r="O13">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P13">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q13">
+        <v>14.28313106216267</v>
+      </c>
+      <c r="R13">
+        <v>128.548179559464</v>
+      </c>
+      <c r="S13">
+        <v>0.02224669103085137</v>
+      </c>
+      <c r="T13">
+        <v>0.02224669103085138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.001642333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.004927</v>
+      </c>
+      <c r="O14">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="P14">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="Q14">
+        <v>6.742779277381111</v>
+      </c>
+      <c r="R14">
+        <v>60.68501349643</v>
+      </c>
+      <c r="S14">
+        <v>0.01050221597913505</v>
+      </c>
+      <c r="T14">
+        <v>0.01050221597913505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.05428166666667</v>
+      </c>
+      <c r="N15">
+        <v>33.162845</v>
+      </c>
+      <c r="O15">
+        <v>0.1903903753498087</v>
+      </c>
+      <c r="P15">
+        <v>0.1903903753498088</v>
+      </c>
+      <c r="Q15">
+        <v>24.83193301233889</v>
+      </c>
+      <c r="R15">
+        <v>223.48739711105</v>
+      </c>
+      <c r="S15">
+        <v>0.03867697768927819</v>
+      </c>
+      <c r="T15">
+        <v>0.0386769776892782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>26.9064930002769</v>
-      </c>
-      <c r="N13">
-        <v>26.9064930002769</v>
-      </c>
-      <c r="O13">
-        <v>0.4881643982880098</v>
-      </c>
-      <c r="P13">
-        <v>0.4881643982880098</v>
-      </c>
-      <c r="Q13">
-        <v>58.86918537896079</v>
-      </c>
-      <c r="R13">
-        <v>58.86918537896079</v>
-      </c>
-      <c r="S13">
-        <v>0.1002702065438165</v>
-      </c>
-      <c r="T13">
-        <v>0.1002702065438165</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.49405866666666</v>
+      </c>
+      <c r="N16">
+        <v>49.482176</v>
+      </c>
+      <c r="O16">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="P16">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="Q16">
+        <v>37.05164860664888</v>
+      </c>
+      <c r="R16">
+        <v>333.46483745984</v>
+      </c>
+      <c r="S16">
+        <v>0.05770979592278456</v>
+      </c>
+      <c r="T16">
+        <v>0.05770979592278457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N17">
+        <v>82.533463</v>
+      </c>
+      <c r="O17">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P17">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q17">
+        <v>61.80004835207445</v>
+      </c>
+      <c r="R17">
+        <v>556.20043516867</v>
+      </c>
+      <c r="S17">
+        <v>0.09625666637074914</v>
+      </c>
+      <c r="T17">
+        <v>0.09625666637074916</v>
       </c>
     </row>
   </sheetData>
